--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H2">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1157636666666667</v>
+        <v>0.3424073333333333</v>
       </c>
       <c r="N2">
-        <v>0.347291</v>
+        <v>1.027222</v>
       </c>
       <c r="O2">
-        <v>0.06974651815675638</v>
+        <v>0.1616399685287176</v>
       </c>
       <c r="P2">
-        <v>0.06974651815675638</v>
+        <v>0.1616399685287176</v>
       </c>
       <c r="Q2">
-        <v>22.07203250495133</v>
+        <v>60.06216100970867</v>
       </c>
       <c r="R2">
-        <v>198.648292544562</v>
+        <v>540.559449087378</v>
       </c>
       <c r="S2">
-        <v>0.01396283184379925</v>
+        <v>0.02481345549279627</v>
       </c>
       <c r="T2">
-        <v>0.01396283184379925</v>
+        <v>0.02481345549279627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H3">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.412430333333334</v>
+        <v>1.412430333333333</v>
       </c>
       <c r="N3">
-        <v>4.237291000000001</v>
+        <v>4.237291</v>
       </c>
       <c r="O3">
-        <v>0.8509759644418096</v>
+        <v>0.666764909520063</v>
       </c>
       <c r="P3">
-        <v>0.8509759644418096</v>
+        <v>0.666764909520063</v>
       </c>
       <c r="Q3">
-        <v>269.3004560582847</v>
+        <v>247.7564287826676</v>
       </c>
       <c r="R3">
-        <v>2423.704104524562</v>
+        <v>2229.807859044009</v>
       </c>
       <c r="S3">
-        <v>0.1703602503555922</v>
+        <v>0.1023555099467556</v>
       </c>
       <c r="T3">
-        <v>0.1703602503555922</v>
+        <v>0.1023555099467556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H4">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.131583</v>
+        <v>0.231231</v>
       </c>
       <c r="N4">
-        <v>0.394749</v>
+        <v>0.6936929999999999</v>
       </c>
       <c r="O4">
-        <v>0.07927751740143402</v>
+        <v>0.1091570416994492</v>
       </c>
       <c r="P4">
-        <v>0.07927751740143402</v>
+        <v>0.1091570416994492</v>
       </c>
       <c r="Q4">
-        <v>25.08821927230199</v>
+        <v>40.56056106402299</v>
       </c>
       <c r="R4">
-        <v>225.793973450718</v>
+        <v>365.0450495762069</v>
       </c>
       <c r="S4">
-        <v>0.01587088034964312</v>
+        <v>0.01675676765213782</v>
       </c>
       <c r="T4">
-        <v>0.01587088034964312</v>
+        <v>0.01675676765213783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>531.1103823333333</v>
+        <v>175.411433</v>
       </c>
       <c r="H5">
-        <v>1593.331147</v>
+        <v>526.234299</v>
       </c>
       <c r="I5">
-        <v>0.5576551459273178</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J5">
-        <v>0.5576551459273177</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1157636666666667</v>
+        <v>0.1322646666666667</v>
       </c>
       <c r="N5">
-        <v>0.347291</v>
+        <v>0.396794</v>
       </c>
       <c r="O5">
-        <v>0.06974651815675638</v>
+        <v>0.06243808025177026</v>
       </c>
       <c r="P5">
-        <v>0.06974651815675638</v>
+        <v>0.06243808025177026</v>
       </c>
       <c r="Q5">
-        <v>61.48328526364187</v>
+        <v>23.20073471526733</v>
       </c>
       <c r="R5">
-        <v>553.3495673727768</v>
+        <v>208.806612437406</v>
       </c>
       <c r="S5">
-        <v>0.0388945047606283</v>
+        <v>0.009584909843060801</v>
       </c>
       <c r="T5">
-        <v>0.03889450476062829</v>
+        <v>0.009584909843060804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J6">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.412430333333334</v>
+        <v>0.3424073333333333</v>
       </c>
       <c r="N6">
-        <v>4.237291000000001</v>
+        <v>1.027222</v>
       </c>
       <c r="O6">
-        <v>0.8509759644418096</v>
+        <v>0.1616399685287176</v>
       </c>
       <c r="P6">
-        <v>0.8509759644418096</v>
+        <v>0.1616399685287176</v>
       </c>
       <c r="Q6">
-        <v>750.1564143558643</v>
+        <v>181.8560897204038</v>
       </c>
       <c r="R6">
-        <v>6751.407729202778</v>
+        <v>1636.704807483634</v>
       </c>
       <c r="S6">
-        <v>0.4745511256314373</v>
+        <v>0.07513013039344008</v>
       </c>
       <c r="T6">
-        <v>0.4745511256314372</v>
+        <v>0.07513013039344008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J7">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.131583</v>
+        <v>1.412430333333333</v>
       </c>
       <c r="N7">
-        <v>0.394749</v>
+        <v>4.237291</v>
       </c>
       <c r="O7">
-        <v>0.07927751740143402</v>
+        <v>0.666764909520063</v>
       </c>
       <c r="P7">
-        <v>0.07927751740143402</v>
+        <v>0.666764909520063</v>
       </c>
       <c r="Q7">
-        <v>69.88509743856699</v>
+        <v>750.1564143558639</v>
       </c>
       <c r="R7">
-        <v>628.9658769471029</v>
+        <v>6751.407729202776</v>
       </c>
       <c r="S7">
-        <v>0.04420951553525216</v>
+        <v>0.3099118061577245</v>
       </c>
       <c r="T7">
-        <v>0.04420951553525215</v>
+        <v>0.3099118061577245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.5583673333333</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H8">
-        <v>454.675102</v>
+        <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.1591332164896969</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J8">
-        <v>0.1591332164896969</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1157636666666667</v>
+        <v>0.231231</v>
       </c>
       <c r="N8">
-        <v>0.347291</v>
+        <v>0.6936929999999999</v>
       </c>
       <c r="O8">
-        <v>0.06974651815675638</v>
+        <v>0.1091570416994492</v>
       </c>
       <c r="P8">
-        <v>0.06974651815675638</v>
+        <v>0.1091570416994492</v>
       </c>
       <c r="Q8">
-        <v>17.54495231652022</v>
+        <v>122.809184817319</v>
       </c>
       <c r="R8">
-        <v>157.904570848682</v>
+        <v>1105.282663355871</v>
       </c>
       <c r="S8">
-        <v>0.01109898777324169</v>
+        <v>0.05073610723194851</v>
       </c>
       <c r="T8">
-        <v>0.01109898777324169</v>
+        <v>0.05073610723194852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.5583673333333</v>
+        <v>531.1103823333333</v>
       </c>
       <c r="H9">
-        <v>454.675102</v>
+        <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.1591332164896969</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J9">
-        <v>0.1591332164896969</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.412430333333334</v>
+        <v>0.1322646666666667</v>
       </c>
       <c r="N9">
-        <v>4.237291000000001</v>
+        <v>0.396794</v>
       </c>
       <c r="O9">
-        <v>0.8509759644418096</v>
+        <v>0.06243808025177026</v>
       </c>
       <c r="P9">
-        <v>0.8509759644418096</v>
+        <v>0.06243808025177026</v>
       </c>
       <c r="Q9">
-        <v>214.0656352920758</v>
+        <v>70.24713768252421</v>
       </c>
       <c r="R9">
-        <v>1926.590717628683</v>
+        <v>632.2242391427179</v>
       </c>
       <c r="S9">
-        <v>0.1354185423770471</v>
+        <v>0.02902117065185</v>
       </c>
       <c r="T9">
-        <v>0.1354185423770471</v>
+        <v>0.02902117065185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H10">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.131583</v>
+        <v>0.3424073333333333</v>
       </c>
       <c r="N10">
-        <v>0.394749</v>
+        <v>1.027222</v>
       </c>
       <c r="O10">
-        <v>0.07927751740143402</v>
+        <v>0.1616399685287176</v>
       </c>
       <c r="P10">
-        <v>0.07927751740143402</v>
+        <v>0.1616399685287176</v>
       </c>
       <c r="Q10">
-        <v>19.942504648822</v>
+        <v>123.3061527790447</v>
       </c>
       <c r="R10">
-        <v>179.482541839398</v>
+        <v>1109.755375011402</v>
       </c>
       <c r="S10">
-        <v>0.01261568633940811</v>
+        <v>0.05094141939841607</v>
       </c>
       <c r="T10">
-        <v>0.01261568633940811</v>
+        <v>0.05094141939841608</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.06597733333334</v>
+        <v>360.115397</v>
       </c>
       <c r="H11">
-        <v>237.197932</v>
+        <v>1080.346191</v>
       </c>
       <c r="I11">
-        <v>0.08301767503395074</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J11">
-        <v>0.08301767503395074</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1157636666666667</v>
+        <v>1.412430333333333</v>
       </c>
       <c r="N11">
-        <v>0.347291</v>
+        <v>4.237291</v>
       </c>
       <c r="O11">
-        <v>0.06974651815675638</v>
+        <v>0.666764909520063</v>
       </c>
       <c r="P11">
-        <v>0.06974651815675638</v>
+        <v>0.666764909520063</v>
       </c>
       <c r="Q11">
-        <v>9.152967444690221</v>
+        <v>508.6379102231757</v>
       </c>
       <c r="R11">
-        <v>82.37670700221199</v>
+        <v>4577.741192008581</v>
       </c>
       <c r="S11">
-        <v>0.005790193779087146</v>
+        <v>0.2101333674163266</v>
       </c>
       <c r="T11">
-        <v>0.005790193779087146</v>
+        <v>0.2101333674163266</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>79.06597733333334</v>
+        <v>360.115397</v>
       </c>
       <c r="H12">
-        <v>237.197932</v>
+        <v>1080.346191</v>
       </c>
       <c r="I12">
-        <v>0.08301767503395074</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J12">
-        <v>0.08301767503395074</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.412430333333334</v>
+        <v>0.231231</v>
       </c>
       <c r="N12">
-        <v>4.237291000000001</v>
+        <v>0.6936929999999999</v>
       </c>
       <c r="O12">
-        <v>0.8509759644418096</v>
+        <v>0.1091570416994492</v>
       </c>
       <c r="P12">
-        <v>0.8509759644418096</v>
+        <v>0.1091570416994492</v>
       </c>
       <c r="Q12">
-        <v>111.6751847202458</v>
+        <v>83.269843363707</v>
       </c>
       <c r="R12">
-        <v>1005.076662482212</v>
+        <v>749.4285902733629</v>
       </c>
       <c r="S12">
-        <v>0.07064604607773296</v>
+        <v>0.0344012356109443</v>
       </c>
       <c r="T12">
-        <v>0.07064604607773296</v>
+        <v>0.03440123561094431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>79.06597733333334</v>
+        <v>360.115397</v>
       </c>
       <c r="H13">
-        <v>237.197932</v>
+        <v>1080.346191</v>
       </c>
       <c r="I13">
-        <v>0.08301767503395074</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J13">
-        <v>0.08301767503395074</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.131583</v>
+        <v>0.1322646666666667</v>
       </c>
       <c r="N13">
-        <v>0.394749</v>
+        <v>0.396794</v>
       </c>
       <c r="O13">
-        <v>0.07927751740143402</v>
+        <v>0.06243808025177026</v>
       </c>
       <c r="P13">
-        <v>0.07927751740143402</v>
+        <v>0.06243808025177026</v>
       </c>
       <c r="Q13">
-        <v>10.403738495452</v>
+        <v>47.63054294573934</v>
       </c>
       <c r="R13">
-        <v>93.63364645906799</v>
+        <v>428.674886511654</v>
       </c>
       <c r="S13">
-        <v>0.006581435177130624</v>
+        <v>0.01967758631413181</v>
       </c>
       <c r="T13">
-        <v>0.006581435177130624</v>
+        <v>0.01967758631413181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>76.02905266666666</v>
+      </c>
+      <c r="H14">
+        <v>228.087158</v>
+      </c>
+      <c r="I14">
+        <v>0.06653653389046771</v>
+      </c>
+      <c r="J14">
+        <v>0.06653653389046772</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.3424073333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.027222</v>
+      </c>
+      <c r="O14">
+        <v>0.1616399685287176</v>
+      </c>
+      <c r="P14">
+        <v>0.1616399685287176</v>
+      </c>
+      <c r="Q14">
+        <v>26.03290517945289</v>
+      </c>
+      <c r="R14">
+        <v>234.296146615076</v>
+      </c>
+      <c r="S14">
+        <v>0.01075496324406515</v>
+      </c>
+      <c r="T14">
+        <v>0.01075496324406515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>76.02905266666666</v>
+      </c>
+      <c r="H15">
+        <v>228.087158</v>
+      </c>
+      <c r="I15">
+        <v>0.06653653389046771</v>
+      </c>
+      <c r="J15">
+        <v>0.06653653389046772</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.412430333333333</v>
+      </c>
+      <c r="N15">
+        <v>4.237291</v>
+      </c>
+      <c r="O15">
+        <v>0.666764909520063</v>
+      </c>
+      <c r="P15">
+        <v>0.666764909520063</v>
+      </c>
+      <c r="Q15">
+        <v>107.3857402009975</v>
+      </c>
+      <c r="R15">
+        <v>966.471661808978</v>
+      </c>
+      <c r="S15">
+        <v>0.0443642259992563</v>
+      </c>
+      <c r="T15">
+        <v>0.04436422599925631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>76.02905266666666</v>
+      </c>
+      <c r="H16">
+        <v>228.087158</v>
+      </c>
+      <c r="I16">
+        <v>0.06653653389046771</v>
+      </c>
+      <c r="J16">
+        <v>0.06653653389046772</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.231231</v>
+      </c>
+      <c r="N16">
+        <v>0.6936929999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1091570416994492</v>
+      </c>
+      <c r="P16">
+        <v>0.1091570416994492</v>
+      </c>
+      <c r="Q16">
+        <v>17.580273877166</v>
+      </c>
+      <c r="R16">
+        <v>158.222464894494</v>
+      </c>
+      <c r="S16">
+        <v>0.007262931204418601</v>
+      </c>
+      <c r="T16">
+        <v>0.007262931204418603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>76.02905266666666</v>
+      </c>
+      <c r="H17">
+        <v>228.087158</v>
+      </c>
+      <c r="I17">
+        <v>0.06653653389046771</v>
+      </c>
+      <c r="J17">
+        <v>0.06653653389046772</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1322646666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.396794</v>
+      </c>
+      <c r="O17">
+        <v>0.06243808025177026</v>
+      </c>
+      <c r="P17">
+        <v>0.06243808025177026</v>
+      </c>
+      <c r="Q17">
+        <v>10.05595730793911</v>
+      </c>
+      <c r="R17">
+        <v>90.50361577145199</v>
+      </c>
+      <c r="S17">
+        <v>0.004154413442727655</v>
+      </c>
+      <c r="T17">
+        <v>0.004154413442727656</v>
       </c>
     </row>
   </sheetData>
